--- a/Project-Management-Data including simple Dashboard.xlsx
+++ b/Project-Management-Data including simple Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9E40F4-53D8-4C75-A4B9-0CD060370D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C526DB7A-EF6B-4F7F-B2BA-37985F3A83D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CE120CA2-B4E2-4FC9-9B81-FB00098FDFE6}"/>
   </bookViews>
@@ -23,18 +23,19 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="357" r:id="rId4"/>
-    <pivotCache cacheId="363" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="356" r:id="rId6"/>
+        <pivotCache cacheId="2" r:id="rId7"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -64,17 +65,6 @@
         </x15:extLst>
       </x15:dataModel>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -103,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="121">
   <si>
     <t>Excel Sample Data</t>
   </si>
@@ -451,6 +441,21 @@
   </si>
   <si>
     <t>Sum of Days Required</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Staus</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -588,13 +593,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -621,7 +699,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Project-Management-Sample-Data.xlsx]Pivot table!PivotTable1</c:name>
+    <c:name>[Project-Management-Data including simple Dashboard.xlsx]Pivot table!PivotTable1</c:name>
     <c:fmtId val="10"/>
   </c:pivotSource>
   <c:chart>
@@ -786,6 +864,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -2096,7 +2183,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Project-Management-Sample-Data.xlsx]Pivot table!PivotTable2</c:name>
+    <c:name>[Project-Management-Data including simple Dashboard.xlsx]Pivot table!PivotTable2</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -2915,6 +3002,586 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Project status</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20288064239494816"/>
+          <c:y val="8.2300911807989319E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Project Management Data'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Complete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Project Management Data'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Project Management Data'!$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF0A-40A7-86A5-4F1B9D2C2600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Project Management Data'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In Progress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Project Management Data'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Project Management Data'!$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF0A-40A7-86A5-4F1B9D2C2600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Project Management Data'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not started</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Project Management Data'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Project Management Data'!$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF0A-40A7-86A5-4F1B9D2C2600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="166774207"/>
+        <c:axId val="166785247"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="166774207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166785247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166785247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166774207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5002533717938724E-2"/>
+          <c:y val="0.65173919792284019"/>
+          <c:w val="0.77572763181829996"/>
+          <c:h val="0.16257339219880754"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2958,6 +3625,46 @@
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3976,20 +4683,590 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="300">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4019,14 +5296,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4058,14 +5335,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>60961</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4101,8 +5378,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="609601"/>
-              <a:ext cx="2255520" cy="4648199"/>
+              <a:off x="0" y="1341120"/>
+              <a:ext cx="2255520" cy="3855720"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4134,14 +5411,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
@@ -4158,8 +5435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2537460" y="60960"/>
-          <a:ext cx="9265920" cy="800100"/>
+          <a:off x="3322320" y="60960"/>
+          <a:ext cx="9197340" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4202,6 +5479,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180026D2-A2A1-46C0-9648-10541A3C3CBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4412,6 +5727,118 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Priya" refreshedDate="45888.631493981484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="46" xr:uid="{5D040DA2-EE68-4860-925D-6CA5FD24CED9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B6:H52" sheet="Project Management Data"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Project Name" numFmtId="0">
+      <sharedItems count="15">
+        <s v="Marketing"/>
+        <s v="Product Dev"/>
+        <s v="Customer Svc"/>
+        <s v="Financial"/>
+        <s v="Research"/>
+        <s v="Development"/>
+        <s v="Production"/>
+        <s v="Sales"/>
+        <s v="Support"/>
+        <s v="Operations"/>
+        <s v="Consulting"/>
+        <s v="Training"/>
+        <s v="Events"/>
+        <s v="Logistics"/>
+        <s v="Engineering"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Task Name" numFmtId="0">
+      <sharedItems count="46">
+        <s v="Market Research"/>
+        <s v="Content Creation"/>
+        <s v="Social Media Planning"/>
+        <s v="Campaign Analysis"/>
+        <s v="Prototype Development"/>
+        <s v="Quality Assurance"/>
+        <s v="User Interface Design"/>
+        <s v="Service Improvement"/>
+        <s v="Ticket Resolution"/>
+        <s v="Customer Feedback"/>
+        <s v="Budget Analysis"/>
+        <s v="Financial Reporting"/>
+        <s v="Investment Planning"/>
+        <s v="Market Trends Analysis"/>
+        <s v="Data Collection"/>
+        <s v="Research Paper Writing"/>
+        <s v="Software Development"/>
+        <s v="Feature Enhancement"/>
+        <s v="Code Review"/>
+        <s v="Manufacturing"/>
+        <s v="Quality Control"/>
+        <s v="Packaging Design"/>
+        <s v="Lead Generation"/>
+        <s v="Client Meetings"/>
+        <s v="Contract Negotiation"/>
+        <s v="Technical Support"/>
+        <s v="Bug Fixes"/>
+        <s v="Software Updates"/>
+        <s v="Process Optimization"/>
+        <s v="Inventory Management"/>
+        <s v="Facility Maintenance"/>
+        <s v="Strategic Planning"/>
+        <s v="Market Expansion"/>
+        <s v="Client Advisory"/>
+        <s v="Employee Training"/>
+        <s v="Certification Programs"/>
+        <s v="Skill Development"/>
+        <s v="Event Planning"/>
+        <s v="Conference Management"/>
+        <s v="Sponsorship Coordinatio"/>
+        <s v="Supply Chain Management"/>
+        <s v="Transportation Planning"/>
+        <s v="Inventory Optimization"/>
+        <s v="Product Design"/>
+        <s v="System Integration"/>
+        <s v="Prototype Testing"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Assigned to" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Start Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-01T00:00:00" maxDate="2024-03-30T00:00:00"/>
+    </cacheField>
+    <cacheField name="Days Required" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="60"/>
+    </cacheField>
+    <cacheField name="End Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-14T00:00:00" maxDate="2024-04-21T00:00:00"/>
+    </cacheField>
+    <cacheField name="Progress" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1" count="12">
+        <n v="0.78"/>
+        <n v="1"/>
+        <n v="0.45"/>
+        <n v="0"/>
+        <n v="0.1"/>
+        <n v="0.5"/>
+        <n v="0.3"/>
+        <n v="0.7"/>
+        <n v="0.4"/>
+        <n v="0.6"/>
+        <n v="0.8"/>
+        <n v="0.2"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Priya" refreshedDate="45888.455532870372" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5AEC12DD-04EE-4518-BB55-4201BA1EA2C6}">
   <cacheSource type="external" connectionId="1">
     <extLst>
@@ -4480,8 +5907,745 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="46">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Alice"/>
+    <d v="2024-01-01T00:00:00"/>
+    <n v="13"/>
+    <d v="2024-01-14T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Bob"/>
+    <d v="2024-01-14T00:00:00"/>
+    <n v="14"/>
+    <d v="2024-01-28T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Charlie"/>
+    <d v="2024-01-28T00:00:00"/>
+    <n v="22"/>
+    <d v="2024-02-19T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Daisy"/>
+    <d v="2024-02-18T00:00:00"/>
+    <n v="25"/>
+    <d v="2024-03-14T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Ethan"/>
+    <d v="2024-01-02T00:00:00"/>
+    <n v="18"/>
+    <d v="2024-01-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Fiona"/>
+    <d v="2024-01-20T00:00:00"/>
+    <n v="10"/>
+    <d v="2024-01-30T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Gabriel"/>
+    <d v="2024-02-04T00:00:00"/>
+    <n v="25"/>
+    <d v="2024-02-29T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <s v="Hannah"/>
+    <d v="2024-02-01T00:00:00"/>
+    <n v="22"/>
+    <d v="2024-02-23T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <s v="Ian"/>
+    <d v="2024-02-24T00:00:00"/>
+    <n v="25"/>
+    <d v="2024-03-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="Julia"/>
+    <d v="2024-03-21T00:00:00"/>
+    <n v="30"/>
+    <d v="2024-04-20T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <s v="Kevin"/>
+    <d v="2024-02-02T00:00:00"/>
+    <n v="22"/>
+    <d v="2024-02-24T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <s v="Mark"/>
+    <d v="2024-02-13T00:00:00"/>
+    <n v="21"/>
+    <d v="2024-02-09T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="12"/>
+    <s v="Mark"/>
+    <d v="2024-03-19T00:00:00"/>
+    <n v="25"/>
+    <d v="2024-04-13T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="13"/>
+    <s v="Nathan"/>
+    <d v="2024-01-02T00:00:00"/>
+    <n v="23"/>
+    <d v="2024-01-25T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="14"/>
+    <s v="Olivia"/>
+    <d v="2024-01-26T00:00:00"/>
+    <n v="32"/>
+    <d v="2024-02-27T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="15"/>
+    <s v="Peter"/>
+    <d v="2024-02-28T00:00:00"/>
+    <n v="27"/>
+    <d v="2024-03-26T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="16"/>
+    <s v="Quinn"/>
+    <d v="2024-01-02T00:00:00"/>
+    <n v="36"/>
+    <d v="2024-02-07T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="17"/>
+    <s v="Rachel"/>
+    <d v="2024-02-08T00:00:00"/>
+    <n v="34"/>
+    <d v="2024-03-13T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="18"/>
+    <s v="Sam"/>
+    <d v="2024-03-14T00:00:00"/>
+    <n v="30"/>
+    <d v="2024-04-13T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="19"/>
+    <s v="Tim"/>
+    <d v="2024-01-03T00:00:00"/>
+    <n v="47"/>
+    <d v="2024-02-19T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="20"/>
+    <s v="Ursula"/>
+    <d v="2024-02-17T00:00:00"/>
+    <n v="27"/>
+    <d v="2024-03-15T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="21"/>
+    <s v="Victor"/>
+    <d v="2024-03-14T00:00:00"/>
+    <n v="22"/>
+    <d v="2024-04-05T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="22"/>
+    <s v="Wendy"/>
+    <d v="2024-01-03T00:00:00"/>
+    <n v="60"/>
+    <d v="2024-03-03T00:00:00"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="23"/>
+    <s v="Xavier"/>
+    <d v="2024-01-06T00:00:00"/>
+    <n v="20"/>
+    <d v="2024-01-26T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="24"/>
+    <s v="Yvette"/>
+    <d v="2024-02-03T00:00:00"/>
+    <n v="35"/>
+    <d v="2024-03-09T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="25"/>
+    <s v="Zoe"/>
+    <d v="2024-01-01T00:00:00"/>
+    <n v="25"/>
+    <d v="2024-01-26T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="26"/>
+    <s v="Aaron"/>
+    <d v="2024-01-27T00:00:00"/>
+    <n v="31"/>
+    <d v="2024-02-27T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="27"/>
+    <s v="Bella"/>
+    <d v="2024-03-02T00:00:00"/>
+    <n v="22"/>
+    <d v="2024-03-24T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="28"/>
+    <s v="Calvin"/>
+    <d v="2024-01-03T00:00:00"/>
+    <n v="30"/>
+    <d v="2024-02-02T00:00:00"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="29"/>
+    <s v="Diane"/>
+    <d v="2024-02-03T00:00:00"/>
+    <n v="25"/>
+    <d v="2024-02-28T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="30"/>
+    <s v="Edward"/>
+    <d v="2024-02-29T00:00:00"/>
+    <n v="20"/>
+    <d v="2024-03-20T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="31"/>
+    <s v="Fiona"/>
+    <d v="2024-01-02T00:00:00"/>
+    <n v="35"/>
+    <d v="2024-02-06T00:00:00"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="32"/>
+    <s v="Gary"/>
+    <d v="2024-02-02T00:00:00"/>
+    <n v="32"/>
+    <d v="2024-03-05T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="33"/>
+    <s v="Helen"/>
+    <d v="2024-03-06T00:00:00"/>
+    <n v="25"/>
+    <d v="2024-03-31T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="34"/>
+    <s v="Isaac"/>
+    <d v="2024-01-04T00:00:00"/>
+    <n v="27"/>
+    <d v="2024-01-31T00:00:00"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="35"/>
+    <s v="Jane"/>
+    <d v="2024-01-28T00:00:00"/>
+    <n v="30"/>
+    <d v="2024-02-27T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="36"/>
+    <s v="Kyle"/>
+    <d v="2024-02-28T00:00:00"/>
+    <n v="22"/>
+    <d v="2024-03-21T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="37"/>
+    <s v="Laura"/>
+    <d v="2024-01-03T00:00:00"/>
+    <n v="25"/>
+    <d v="2024-01-28T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="38"/>
+    <s v="Mike"/>
+    <d v="2024-02-03T00:00:00"/>
+    <n v="20"/>
+    <d v="2024-02-23T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="39"/>
+    <s v="n Nancy"/>
+    <d v="2024-02-24T00:00:00"/>
+    <n v="35"/>
+    <d v="2024-03-30T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="40"/>
+    <s v="Oscar"/>
+    <d v="2024-01-03T00:00:00"/>
+    <n v="25"/>
+    <d v="2024-01-28T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="41"/>
+    <s v="Patricia"/>
+    <d v="2024-01-29T00:00:00"/>
+    <n v="30"/>
+    <d v="2024-02-28T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="42"/>
+    <s v="Quentin"/>
+    <d v="2024-03-29T00:00:00"/>
+    <n v="20"/>
+    <d v="2024-04-18T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="43"/>
+    <s v="Rachel"/>
+    <d v="2024-01-02T00:00:00"/>
+    <n v="25"/>
+    <d v="2024-01-27T00:00:00"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="44"/>
+    <s v="Sam"/>
+    <d v="2024-02-02T00:00:00"/>
+    <n v="22"/>
+    <d v="2024-02-24T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="45"/>
+    <s v="Tom"/>
+    <d v="2024-02-23T00:00:00"/>
+    <n v="27"/>
+    <d v="2024-03-21T00:00:00"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F0550FE-8E7C-402A-9475-5B15498E6EE5}" name="PivotTable2" cacheId="357" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AAE02D03-F941-4955-A3CC-1921945730C1}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="I3:K50" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="15">
+        <item x="10"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="11"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="46">
+        <item x="10"/>
+        <item x="26"/>
+        <item x="3"/>
+        <item x="35"/>
+        <item x="33"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="1"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="34"/>
+        <item x="37"/>
+        <item x="30"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item x="29"/>
+        <item x="42"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="32"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="28"/>
+        <item x="43"/>
+        <item x="4"/>
+        <item x="45"/>
+        <item x="5"/>
+        <item x="20"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="36"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="27"/>
+        <item x="39"/>
+        <item x="31"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="25"/>
+        <item x="8"/>
+        <item x="41"/>
+        <item x="6"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" numFmtId="9" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="47">
+    <i>
+      <x/>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="10"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="27"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="41"/>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="7"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="18"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="44"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="14"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="28"/>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+      <x/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="21"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="11"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="5"/>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="1"/>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="42"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F0550FE-8E7C-402A-9475-5B15498E6EE5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="F3:G19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -4615,8 +6779,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1CC8DE21-BA41-49AA-87FA-6DCD56D8273C}" name="PivotTable1" cacheId="363" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1CC8DE21-BA41-49AA-87FA-6DCD56D8273C}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -4976,6 +7140,17 @@
 </slicers>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{529A7072-1A87-439E-86F0-49127B669E76}" name="Table2" displayName="Table2" ref="J1:K4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="J1:K4" xr:uid="{529A7072-1A87-439E-86F0-49127B669E76}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E4625520-AC4B-4E31-AC5D-301C55D6AAE2}" name="Staus" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{57660445-9D3B-4D5C-80E0-9FE295E202EF}" name="Count" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5293,10 +7468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5A1D0E-9DCF-479A-B697-C99B01905E17}">
-  <dimension ref="A3:G19"/>
+  <dimension ref="A3:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5308,15 +7483,15 @@
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="37" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="37" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>112</v>
       </c>
@@ -5329,229 +7504,624 @@
       <c r="G3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>0.6</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>2</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>0.2</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>0.3</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>1.88</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>1.5</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>2.23</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12">
         <v>0.4</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13">
         <v>1.78</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14">
         <v>0.3</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15">
         <v>0.5</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16">
         <v>1.48</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18">
         <v>0.8</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19">
         <v>16.97</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19">
         <v>1218</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" t="s">
+        <v>89</v>
+      </c>
+      <c r="K47" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -5561,10 +8131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC7BEC1-BD91-4F4F-8985-8014BC582418}">
-  <dimension ref="B2:H52"/>
+  <dimension ref="B1:K52"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5577,10 +8147,20 @@
     <col min="6" max="6" width="15.5546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="9" max="9" width="9.109375" style="2"/>
+    <col min="10" max="12" width="10.44140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5590,8 +8170,24 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="2">
+        <f>COUNTIF(H7:H52, 1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="2">
+        <f>COUNTIFS(H7:H52, "&gt;0",H7:H52, "&lt;1")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -5601,8 +8197,15 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="2">
+        <f>COUNTIF(H7:H52, 0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -5625,7 +8228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -5648,7 +8251,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -5671,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
@@ -5694,7 +8297,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -5717,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
@@ -5740,7 +8343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -5763,7 +8366,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -5786,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -5809,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
@@ -5832,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
@@ -6685,6 +9288,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6693,7 +9299,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
